--- a/input/children.xlsx
+++ b/input/children.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WEB - Registrations - Active" sheetId="1" r:id="R7325dc9bce5d4fbd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WEB - Registrations - Active" sheetId="1" r:id="R52889f319e504631"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/input/children.xlsx
+++ b/input/children.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WEB - Registrations - Active" sheetId="1" r:id="R52889f319e504631"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WEB - Registrations - Active" sheetId="1" r:id="R0639e01a476c4828"/>
   </x:sheets>
 </x:workbook>
 </file>
